--- a/mapa_perm.xlsx
+++ b/mapa_perm.xlsx
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -348,7 +348,7 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -361,8 +361,53 @@
       <c r="D1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -375,26 +420,130 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A4" si="0">A2+1</f>
+        <f t="shared" ref="A3:A19" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B4" si="1">B2+1</f>
+        <f t="shared" ref="B3:B8" si="1">B2+1</f>
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C4" si="2">C2+1</f>
+        <f t="shared" ref="C3:C8" si="2">C2+1</f>
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D4" si="3">D2+1</f>
+        <f t="shared" ref="D3:D8" si="3">D2+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="4">E2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F8" si="5">F2+1</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="6">G2+1</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I8" si="7">I2+1</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J8" si="8">J2+1</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K8" si="9">K2+1</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L8" si="10">L2+1</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M8" si="11">M2+1</f>
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="12">N2+1</f>
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O8" si="13">O2+1</f>
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P8" si="14">P2+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q8" si="15">Q2+1</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R8" si="16">R2+1</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S8" si="17">S2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -410,6 +559,1229 @@
       <c r="D4" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:B19" si="18">B8+1</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:I17" si="19">C8+1</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9:J19" si="20">J8+1</f>
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K19" si="21">K8+1</f>
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:L19" si="22">L8+1</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M19" si="23">M8+1</f>
+        <v>9</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:N19" si="24">N8+1</f>
+        <v>9</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O19" si="25">O8+1</f>
+        <v>9</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9:P19" si="26">P8+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9:Q19" si="27">Q8+1</f>
+        <v>9</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ref="R9:R19" si="28">R8+1</f>
+        <v>9</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:S19" si="29">S8+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:S12" si="30">G12</f>
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="28"/>
+        <v>15</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C19" si="31">C17+1</f>
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:D19" si="32">D17+1</f>
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E19" si="33">E17+1</f>
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F19" si="34">F17+1</f>
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:G19" si="35">G17+1</f>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:H19" si="36">H17+1</f>
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ref="I18:I19" si="37">I17+1</f>
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="32"/>
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="34"/>
+        <v>19</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="36"/>
+        <v>19</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="37"/>
+        <v>19</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="28"/>
+        <v>19</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="29"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_perm.xlsx
+++ b/mapa_perm.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:T21"/>
+      <selection activeCell="N21" sqref="N21:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,31 +1208,31 @@
         <v>371.80782950000008</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>20.569875499999998</v>
+        <f>M11</f>
+        <v>371.80782950000008</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O11:T11" si="3">N11</f>
         <v>371.80782950000008</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>371.80782950000008</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>371.80782950000008</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>371.80782950000008</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>371.80782950000008</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>371.80782950000008</v>
       </c>
     </row>
@@ -1290,8 +1290,8 @@
         <v>392.37770500000011</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>41.139750999999997</v>
+        <f>M12</f>
+        <v>392.37770500000011</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -1372,31 +1372,31 @@
         <v>412.94758050000013</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>61.709626499999999</v>
+        <f>M13</f>
+        <v>412.94758050000013</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:T13" si="3">O12+20.5698755</f>
+        <f t="shared" ref="O13:T13" si="4">N13</f>
         <v>412.94758050000013</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>412.94758050000013</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>412.94758050000013</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>412.94758050000013</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>412.94758050000013</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>412.94758050000013</v>
       </c>
     </row>
@@ -1454,31 +1454,31 @@
         <v>433.51745600000015</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:T15" si="4">N13+20.5698755</f>
-        <v>82.279501999999994</v>
+        <f t="shared" ref="N12:T21" si="5">M14</f>
+        <v>433.51745600000015</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N14:T15" si="6">O13+20.5698755</f>
         <v>433.51745600000015</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>433.51745600000015</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>433.51745600000015</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>433.51745600000015</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>433.51745600000015</v>
       </c>
       <c r="T14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>433.51745600000015</v>
       </c>
     </row>
@@ -1536,31 +1536,31 @@
         <v>454.08733150000018</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
-        <v>102.84937749999999</v>
+        <f t="shared" si="5"/>
+        <v>454.08733150000018</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454.08733150000018</v>
       </c>
     </row>
@@ -1602,24 +1602,24 @@
         <v>474.6572070000002</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:T21" si="5">J15+20.5698755</f>
+        <f t="shared" ref="J16:T21" si="7">J15+20.5698755</f>
         <v>474.6572070000002</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>474.6572070000002</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>474.6572070000002</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>474.6572070000002</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>123.41925299999998</v>
+        <v>474.6572070000002</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
@@ -1652,56 +1652,56 @@
         <v>495.22708250000022</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:I21" si="6">B16+20.5698755</f>
+        <f t="shared" ref="B17:I21" si="8">B16+20.5698755</f>
         <v>495.22708250000022</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>495.22708250000022</v>
       </c>
       <c r="J17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>495.22708250000022</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>495.22708250000022</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>495.22708250000022</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>495.22708250000022</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>143.98912849999999</v>
+        <v>495.22708250000022</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
@@ -1734,56 +1734,56 @@
         <v>515.79695800000025</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="F18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515.79695800000025</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>515.79695800000025</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>515.79695800000025</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>515.79695800000025</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>515.79695800000025</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>164.55900399999999</v>
+        <v>515.79695800000025</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
@@ -1816,56 +1816,56 @@
         <v>536.36683350000021</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="D19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>536.36683350000021</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>536.36683350000021</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>536.36683350000021</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>536.36683350000021</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>536.36683350000021</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>185.12887949999998</v>
+        <v>536.36683350000021</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
@@ -1898,56 +1898,56 @@
         <v>556.93670900000018</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="F20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.93670900000018</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556.93670900000018</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556.93670900000018</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556.93670900000018</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>556.93670900000018</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>205.69875499999998</v>
+        <v>556.93670900000018</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
@@ -1980,56 +1980,56 @@
         <v>577.50658450000014</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>577.50658450000014</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>577.50658450000014</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>577.50658450000014</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>577.50658450000014</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>577.50658450000014</v>
       </c>
       <c r="N21">
         <f t="shared" si="5"/>
-        <v>226.26863049999997</v>
+        <v>577.50658450000014</v>
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
